--- a/Raihan Haque Dinar.xlsx
+++ b/Raihan Haque Dinar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8220" firstSheet="7" activeTab="7"/>
+    <workbookView windowWidth="20475" windowHeight="8220" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="types_of_element" sheetId="1" r:id="rId1"/>
@@ -1830,13 +1830,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1847,6 +1840,13 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2703,7 +2703,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2717,7 +2717,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2731,7 +2731,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2745,7 +2745,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2759,7 +2759,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2773,7 +2773,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2787,7 +2787,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2801,7 +2801,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2815,7 +2815,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2829,7 +2829,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2843,7 +2843,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2857,7 +2857,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2871,7 +2871,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2885,7 +2885,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2899,7 +2899,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2913,7 +2913,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2927,7 +2927,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2941,7 +2941,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2955,7 +2955,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2969,7 +2969,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2983,7 +2983,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -2997,7 +2997,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3011,7 +3011,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3025,7 +3025,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3039,7 +3039,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3053,7 +3053,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3067,7 +3067,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3081,7 +3081,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3095,7 +3095,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3109,7 +3109,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3123,7 +3123,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3137,7 +3137,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3151,7 +3151,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3165,7 +3165,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3179,7 +3179,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3193,7 +3193,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3207,7 +3207,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3221,7 +3221,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3235,7 +3235,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3249,7 +3249,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3263,7 +3263,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3277,7 +3277,7 @@
     <dxf>
       <font>
         <name val="Arial"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
         <charset val="134"/>
         <family val="0"/>
         <b val="0"/>
@@ -3426,32 +3426,32 @@
     </dxf>
   </dxfs>
   <tableStyles count="6">
-    <tableStyle name="automation_101-style" pivot="0" count="3" xr9:uid="{0A1A340E-15F8-4F97-A6EF-F4E67578B950}">
+    <tableStyle name="automation_101-style" pivot="0" count="3" xr9:uid="{86877B4E-FD5C-41B4-97A9-47896227A559}">
       <tableStyleElement type="headerRow" dxfId="44"/>
       <tableStyleElement type="firstRowStripe" dxfId="43"/>
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="tc_symplex_vpn_processing_time-style" pivot="0" count="3" xr9:uid="{6D2C16C7-4952-468F-B633-F10300A1EE6F}">
+    <tableStyle name="tc_symplex_vpn_processing_time-style" pivot="0" count="3" xr9:uid="{EA9FD079-FC13-4422-9592-42853866C136}">
       <tableStyleElement type="headerRow" dxfId="47"/>
       <tableStyleElement type="firstRowStripe" dxfId="46"/>
       <tableStyleElement type="secondRowStripe" dxfId="45"/>
     </tableStyle>
-    <tableStyle name="tc_template-style" pivot="0" count="3" xr9:uid="{098F9884-9DBD-4572-AF5F-62A6BFDC33CF}">
+    <tableStyle name="tc_template-style" pivot="0" count="3" xr9:uid="{AFA7960C-F615-4108-B8F8-DF8FE3274792}">
       <tableStyleElement type="headerRow" dxfId="50"/>
       <tableStyleElement type="firstRowStripe" dxfId="49"/>
       <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="tc_brown_vpn_contact_form-style" pivot="0" count="3" xr9:uid="{55516995-0747-407B-9E39-6044D8C280D6}">
+    <tableStyle name="tc_brown_vpn_contact_form-style" pivot="0" count="3" xr9:uid="{010088E8-4E2A-40CC-860F-A3B0CC115E71}">
       <tableStyleElement type="headerRow" dxfId="53"/>
       <tableStyleElement type="firstRowStripe" dxfId="52"/>
       <tableStyleElement type="secondRowStripe" dxfId="51"/>
     </tableStyle>
-    <tableStyle name="tc_ipet_store-style" pivot="0" count="3" xr9:uid="{16458CE0-7C84-44A2-ACA2-29571D3AE2A8}">
+    <tableStyle name="tc_ipet_store-style" pivot="0" count="3" xr9:uid="{1EEBC4B5-2F64-4DA7-A059-FF2A04243654}">
       <tableStyleElement type="headerRow" dxfId="56"/>
       <tableStyleElement type="firstRowStripe" dxfId="55"/>
       <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="feature-style" pivot="0" count="2" xr9:uid="{3BFD0F70-C6C6-4EE6-9EE4-39236A6B44AD}">
+    <tableStyle name="feature-style" pivot="0" count="2" xr9:uid="{5160B18B-726F-4AB4-AAB3-BBB16D331CAC}">
       <tableStyleElement type="firstRowStripe" dxfId="58"/>
       <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
@@ -54542,8 +54542,8 @@
   </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -55539,7 +55539,7 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
